--- a/2022/Symphony/AUGUST/13.08.2022/MC Bank Statement Aug-2022.xlsx
+++ b/2022/Symphony/AUGUST/13.08.2022/MC Bank Statement Aug-2022.xlsx
@@ -3106,6 +3106,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3117,6 +3123,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3145,22 +3163,10 @@
     <xf numFmtId="1" fontId="37" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="37" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3258,12 +3264,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="42" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -3974,33 +3974,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A1" s="344"/>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
+      <c r="A1" s="346"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="A2" s="345"/>
-      <c r="B2" s="342" t="s">
+      <c r="A2" s="347"/>
+      <c r="B2" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
-      <c r="A3" s="345"/>
-      <c r="B3" s="343" t="s">
+      <c r="A3" s="347"/>
+      <c r="B3" s="345" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A4" s="345"/>
+      <c r="A4" s="347"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -4018,7 +4018,7 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="345"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="345"/>
+      <c r="A6" s="347"/>
       <c r="B6" s="26"/>
       <c r="C6" s="25"/>
       <c r="D6" s="25"/>
@@ -4048,7 +4048,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="345"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="26" t="s">
         <v>47</v>
       </c>
@@ -4067,7 +4067,7 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="345"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="26" t="s">
         <v>48</v>
       </c>
@@ -4086,7 +4086,7 @@
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="345"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="26" t="s">
         <v>50</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="345"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="26" t="s">
         <v>51</v>
       </c>
@@ -4124,7 +4124,7 @@
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="345"/>
+      <c r="A11" s="347"/>
       <c r="B11" s="26" t="s">
         <v>52</v>
       </c>
@@ -4143,7 +4143,7 @@
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="345"/>
+      <c r="A12" s="347"/>
       <c r="B12" s="26" t="s">
         <v>53</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="345"/>
+      <c r="A13" s="347"/>
       <c r="B13" s="26" t="s">
         <v>54</v>
       </c>
@@ -4181,7 +4181,7 @@
       <c r="H13" s="30"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="345"/>
+      <c r="A14" s="347"/>
       <c r="B14" s="26" t="s">
         <v>55</v>
       </c>
@@ -4200,7 +4200,7 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="345"/>
+      <c r="A15" s="347"/>
       <c r="B15" s="26" t="s">
         <v>56</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="345"/>
+      <c r="A16" s="347"/>
       <c r="B16" s="26"/>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -4232,7 +4232,7 @@
       <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="345"/>
+      <c r="A17" s="347"/>
       <c r="B17" s="26"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -4245,7 +4245,7 @@
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="345"/>
+      <c r="A18" s="347"/>
       <c r="B18" s="26"/>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -4258,7 +4258,7 @@
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="345"/>
+      <c r="A19" s="347"/>
       <c r="B19" s="26"/>
       <c r="C19" s="25"/>
       <c r="D19" s="25"/>
@@ -4271,7 +4271,7 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="345"/>
+      <c r="A20" s="347"/>
       <c r="B20" s="26"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -4284,7 +4284,7 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="345"/>
+      <c r="A21" s="347"/>
       <c r="B21" s="26"/>
       <c r="C21" s="25"/>
       <c r="D21" s="25"/>
@@ -4297,7 +4297,7 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="345"/>
+      <c r="A22" s="347"/>
       <c r="B22" s="26"/>
       <c r="C22" s="25"/>
       <c r="D22" s="25"/>
@@ -4310,7 +4310,7 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="345"/>
+      <c r="A23" s="347"/>
       <c r="B23" s="26"/>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
@@ -4323,7 +4323,7 @@
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="345"/>
+      <c r="A24" s="347"/>
       <c r="B24" s="26"/>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
@@ -4336,7 +4336,7 @@
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="345"/>
+      <c r="A25" s="347"/>
       <c r="B25" s="26"/>
       <c r="C25" s="25"/>
       <c r="D25" s="25"/>
@@ -4349,7 +4349,7 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="345"/>
+      <c r="A26" s="347"/>
       <c r="B26" s="26"/>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
@@ -4362,7 +4362,7 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="345"/>
+      <c r="A27" s="347"/>
       <c r="B27" s="26"/>
       <c r="C27" s="25"/>
       <c r="D27" s="25"/>
@@ -4375,7 +4375,7 @@
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="345"/>
+      <c r="A28" s="347"/>
       <c r="B28" s="26"/>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
@@ -4388,7 +4388,7 @@
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="345"/>
+      <c r="A29" s="347"/>
       <c r="B29" s="26"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
@@ -4401,7 +4401,7 @@
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="345"/>
+      <c r="A30" s="347"/>
       <c r="B30" s="26"/>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
@@ -4414,7 +4414,7 @@
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="345"/>
+      <c r="A31" s="347"/>
       <c r="B31" s="26"/>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
@@ -4427,7 +4427,7 @@
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="345"/>
+      <c r="A32" s="347"/>
       <c r="B32" s="26"/>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -4440,7 +4440,7 @@
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="345"/>
+      <c r="A33" s="347"/>
       <c r="B33" s="26"/>
       <c r="C33" s="25"/>
       <c r="D33" s="28"/>
@@ -4453,7 +4453,7 @@
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="345"/>
+      <c r="A34" s="347"/>
       <c r="B34" s="26"/>
       <c r="C34" s="25"/>
       <c r="D34" s="25"/>
@@ -4466,7 +4466,7 @@
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="345"/>
+      <c r="A35" s="347"/>
       <c r="B35" s="26"/>
       <c r="C35" s="25"/>
       <c r="D35" s="25"/>
@@ -4479,7 +4479,7 @@
       <c r="H35" s="21"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="345"/>
+      <c r="A36" s="347"/>
       <c r="B36" s="26"/>
       <c r="C36" s="25"/>
       <c r="D36" s="25"/>
@@ -4492,7 +4492,7 @@
       <c r="H36" s="21"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="345"/>
+      <c r="A37" s="347"/>
       <c r="B37" s="26"/>
       <c r="C37" s="25"/>
       <c r="D37" s="25"/>
@@ -4505,7 +4505,7 @@
       <c r="H37" s="21"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="345"/>
+      <c r="A38" s="347"/>
       <c r="B38" s="26"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
@@ -4518,7 +4518,7 @@
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="345"/>
+      <c r="A39" s="347"/>
       <c r="B39" s="26"/>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -4531,7 +4531,7 @@
       <c r="H39" s="21"/>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="345"/>
+      <c r="A40" s="347"/>
       <c r="B40" s="26"/>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -4544,7 +4544,7 @@
       <c r="H40" s="21"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="345"/>
+      <c r="A41" s="347"/>
       <c r="B41" s="26"/>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -4557,7 +4557,7 @@
       <c r="H41" s="21"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="345"/>
+      <c r="A42" s="347"/>
       <c r="B42" s="26"/>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -4570,7 +4570,7 @@
       <c r="H42" s="21"/>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="345"/>
+      <c r="A43" s="347"/>
       <c r="B43" s="26"/>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -4583,7 +4583,7 @@
       <c r="H43" s="21"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="345"/>
+      <c r="A44" s="347"/>
       <c r="B44" s="26"/>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -4596,7 +4596,7 @@
       <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="345"/>
+      <c r="A45" s="347"/>
       <c r="B45" s="26"/>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -4609,7 +4609,7 @@
       <c r="H45" s="21"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="345"/>
+      <c r="A46" s="347"/>
       <c r="B46" s="26"/>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -4622,7 +4622,7 @@
       <c r="H46" s="21"/>
     </row>
     <row r="47" spans="1:8">
-      <c r="A47" s="345"/>
+      <c r="A47" s="347"/>
       <c r="B47" s="26"/>
       <c r="C47" s="25"/>
       <c r="D47" s="25"/>
@@ -4635,7 +4635,7 @@
       <c r="H47" s="21"/>
     </row>
     <row r="48" spans="1:8">
-      <c r="A48" s="345"/>
+      <c r="A48" s="347"/>
       <c r="B48" s="26"/>
       <c r="C48" s="25"/>
       <c r="D48" s="25"/>
@@ -4648,7 +4648,7 @@
       <c r="H48" s="21"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="345"/>
+      <c r="A49" s="347"/>
       <c r="B49" s="26"/>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -4661,7 +4661,7 @@
       <c r="H49" s="21"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="345"/>
+      <c r="A50" s="347"/>
       <c r="B50" s="26"/>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -4674,7 +4674,7 @@
       <c r="H50" s="21"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="345"/>
+      <c r="A51" s="347"/>
       <c r="B51" s="26"/>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -4687,7 +4687,7 @@
       <c r="H51" s="21"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="345"/>
+      <c r="A52" s="347"/>
       <c r="B52" s="26"/>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -4700,7 +4700,7 @@
       <c r="H52" s="21"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="345"/>
+      <c r="A53" s="347"/>
       <c r="B53" s="26"/>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -4713,7 +4713,7 @@
       <c r="H53" s="21"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="345"/>
+      <c r="A54" s="347"/>
       <c r="B54" s="26"/>
       <c r="C54" s="25"/>
       <c r="D54" s="25"/>
@@ -4726,7 +4726,7 @@
       <c r="H54" s="21"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="345"/>
+      <c r="A55" s="347"/>
       <c r="B55" s="26"/>
       <c r="C55" s="25"/>
       <c r="D55" s="25"/>
@@ -4738,7 +4738,7 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="345"/>
+      <c r="A56" s="347"/>
       <c r="B56" s="26"/>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -4750,7 +4750,7 @@
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="345"/>
+      <c r="A57" s="347"/>
       <c r="B57" s="26"/>
       <c r="C57" s="25"/>
       <c r="D57" s="25"/>
@@ -4762,7 +4762,7 @@
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="345"/>
+      <c r="A58" s="347"/>
       <c r="B58" s="26"/>
       <c r="C58" s="25"/>
       <c r="D58" s="25"/>
@@ -4774,7 +4774,7 @@
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="345"/>
+      <c r="A59" s="347"/>
       <c r="B59" s="26"/>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -4786,7 +4786,7 @@
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="345"/>
+      <c r="A60" s="347"/>
       <c r="B60" s="26"/>
       <c r="C60" s="25"/>
       <c r="D60" s="25"/>
@@ -4798,7 +4798,7 @@
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="345"/>
+      <c r="A61" s="347"/>
       <c r="B61" s="26"/>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4810,7 +4810,7 @@
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="345"/>
+      <c r="A62" s="347"/>
       <c r="B62" s="26"/>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4822,7 +4822,7 @@
       <c r="G62" s="2"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="345"/>
+      <c r="A63" s="347"/>
       <c r="B63" s="26"/>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4834,7 +4834,7 @@
       <c r="G63" s="2"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="345"/>
+      <c r="A64" s="347"/>
       <c r="B64" s="26"/>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4846,7 +4846,7 @@
       <c r="G64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="345"/>
+      <c r="A65" s="347"/>
       <c r="B65" s="26"/>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4858,7 +4858,7 @@
       <c r="G65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="345"/>
+      <c r="A66" s="347"/>
       <c r="B66" s="26"/>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
@@ -4870,7 +4870,7 @@
       <c r="G66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="345"/>
+      <c r="A67" s="347"/>
       <c r="B67" s="26"/>
       <c r="C67" s="25"/>
       <c r="D67" s="25"/>
@@ -4882,7 +4882,7 @@
       <c r="G67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="345"/>
+      <c r="A68" s="347"/>
       <c r="B68" s="26"/>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4894,7 +4894,7 @@
       <c r="G68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="345"/>
+      <c r="A69" s="347"/>
       <c r="B69" s="26"/>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4906,7 +4906,7 @@
       <c r="G69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="345"/>
+      <c r="A70" s="347"/>
       <c r="B70" s="26"/>
       <c r="C70" s="25"/>
       <c r="D70" s="25"/>
@@ -4918,7 +4918,7 @@
       <c r="G70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="345"/>
+      <c r="A71" s="347"/>
       <c r="B71" s="26"/>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4930,7 +4930,7 @@
       <c r="G71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="345"/>
+      <c r="A72" s="347"/>
       <c r="B72" s="26"/>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4942,7 +4942,7 @@
       <c r="G72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="345"/>
+      <c r="A73" s="347"/>
       <c r="B73" s="26"/>
       <c r="C73" s="25"/>
       <c r="D73" s="25"/>
@@ -4954,7 +4954,7 @@
       <c r="G73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="345"/>
+      <c r="A74" s="347"/>
       <c r="B74" s="26"/>
       <c r="C74" s="25"/>
       <c r="D74" s="25"/>
@@ -4966,7 +4966,7 @@
       <c r="G74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="345"/>
+      <c r="A75" s="347"/>
       <c r="B75" s="26"/>
       <c r="C75" s="25"/>
       <c r="D75" s="25"/>
@@ -4978,7 +4978,7 @@
       <c r="G75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="345"/>
+      <c r="A76" s="347"/>
       <c r="B76" s="26"/>
       <c r="C76" s="25"/>
       <c r="D76" s="25"/>
@@ -4990,7 +4990,7 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="345"/>
+      <c r="A77" s="347"/>
       <c r="B77" s="26"/>
       <c r="C77" s="25"/>
       <c r="D77" s="25"/>
@@ -5002,7 +5002,7 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="345"/>
+      <c r="A78" s="347"/>
       <c r="B78" s="26"/>
       <c r="C78" s="25"/>
       <c r="D78" s="25"/>
@@ -5014,7 +5014,7 @@
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="345"/>
+      <c r="A79" s="347"/>
       <c r="B79" s="26"/>
       <c r="C79" s="25"/>
       <c r="D79" s="25"/>
@@ -5026,7 +5026,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="345"/>
+      <c r="A80" s="347"/>
       <c r="B80" s="26"/>
       <c r="C80" s="25"/>
       <c r="D80" s="25"/>
@@ -5038,7 +5038,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="345"/>
+      <c r="A81" s="347"/>
       <c r="B81" s="26"/>
       <c r="C81" s="25"/>
       <c r="D81" s="25"/>
@@ -5050,7 +5050,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="345"/>
+      <c r="A82" s="347"/>
       <c r="B82" s="26"/>
       <c r="C82" s="25"/>
       <c r="D82" s="25"/>
@@ -5062,7 +5062,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="345"/>
+      <c r="A83" s="347"/>
       <c r="B83" s="31"/>
       <c r="C83" s="27">
         <f>SUM(C5:C72)</f>
@@ -5119,33 +5119,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A1" s="344"/>
-      <c r="B1" s="344"/>
-      <c r="C1" s="344"/>
-      <c r="D1" s="344"/>
-      <c r="E1" s="344"/>
-      <c r="F1" s="344"/>
+      <c r="A1" s="346"/>
+      <c r="B1" s="346"/>
+      <c r="C1" s="346"/>
+      <c r="D1" s="346"/>
+      <c r="E1" s="346"/>
+      <c r="F1" s="346"/>
     </row>
     <row r="2" spans="1:7" ht="20.25">
-      <c r="A2" s="345"/>
-      <c r="B2" s="342" t="s">
+      <c r="A2" s="347"/>
+      <c r="B2" s="344" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="342"/>
-      <c r="D2" s="342"/>
-      <c r="E2" s="342"/>
+      <c r="C2" s="344"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
     </row>
     <row r="3" spans="1:7" ht="16.5" customHeight="1">
-      <c r="A3" s="345"/>
-      <c r="B3" s="343" t="s">
+      <c r="A3" s="347"/>
+      <c r="B3" s="345" t="s">
         <v>176</v>
       </c>
-      <c r="C3" s="343"/>
-      <c r="D3" s="343"/>
-      <c r="E3" s="343"/>
+      <c r="C3" s="345"/>
+      <c r="D3" s="345"/>
+      <c r="E3" s="345"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1">
-      <c r="A4" s="345"/>
+      <c r="A4" s="347"/>
       <c r="B4" s="22" t="s">
         <v>0</v>
       </c>
@@ -5163,7 +5163,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="345"/>
+      <c r="A5" s="347"/>
       <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
@@ -5181,7 +5181,7 @@
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="345"/>
+      <c r="A6" s="347"/>
       <c r="B6" s="26"/>
       <c r="C6" s="247"/>
       <c r="D6" s="247"/>
@@ -5193,7 +5193,7 @@
       <c r="G6" s="19"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="345"/>
+      <c r="A7" s="347"/>
       <c r="B7" s="26" t="s">
         <v>175</v>
       </c>
@@ -5211,7 +5211,7 @@
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="345"/>
+      <c r="A8" s="347"/>
       <c r="B8" s="26" t="s">
         <v>179</v>
       </c>
@@ -5229,7 +5229,7 @@
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="345"/>
+      <c r="A9" s="347"/>
       <c r="B9" s="26" t="s">
         <v>181</v>
       </c>
@@ -5247,7 +5247,7 @@
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="345"/>
+      <c r="A10" s="347"/>
       <c r="B10" s="26" t="s">
         <v>185</v>
       </c>
@@ -5265,7 +5265,7 @@
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="345"/>
+      <c r="A11" s="347"/>
       <c r="B11" s="26" t="s">
         <v>193</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="345"/>
+      <c r="A12" s="347"/>
       <c r="B12" s="26" t="s">
         <v>194</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="345"/>
+      <c r="A13" s="347"/>
       <c r="B13" s="26" t="s">
         <v>195</v>
       </c>
@@ -5319,7 +5319,7 @@
       <c r="G13" s="30"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="345"/>
+      <c r="A14" s="347"/>
       <c r="B14" s="26" t="s">
         <v>196</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="345"/>
+      <c r="A15" s="347"/>
       <c r="B15" s="26" t="s">
         <v>202</v>
       </c>
@@ -5354,7 +5354,7 @@
       <c r="G15" s="11"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="345"/>
+      <c r="A16" s="347"/>
       <c r="B16" s="26" t="s">
         <v>203</v>
       </c>
@@ -5372,7 +5372,7 @@
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="345"/>
+      <c r="A17" s="347"/>
       <c r="B17" s="26"/>
       <c r="C17" s="247"/>
       <c r="D17" s="247"/>
@@ -5384,7 +5384,7 @@
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="345"/>
+      <c r="A18" s="347"/>
       <c r="B18" s="26"/>
       <c r="C18" s="247"/>
       <c r="D18" s="247"/>
@@ -5396,7 +5396,7 @@
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" ht="12.75" customHeight="1">
-      <c r="A19" s="345"/>
+      <c r="A19" s="347"/>
       <c r="B19" s="26"/>
       <c r="C19" s="247"/>
       <c r="D19" s="249"/>
@@ -5408,7 +5408,7 @@
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="345"/>
+      <c r="A20" s="347"/>
       <c r="B20" s="26"/>
       <c r="C20" s="247"/>
       <c r="D20" s="247"/>
@@ -5420,7 +5420,7 @@
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="345"/>
+      <c r="A21" s="347"/>
       <c r="B21" s="26"/>
       <c r="C21" s="247"/>
       <c r="D21" s="247"/>
@@ -5432,7 +5432,7 @@
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="345"/>
+      <c r="A22" s="347"/>
       <c r="B22" s="26"/>
       <c r="C22" s="247"/>
       <c r="D22" s="247"/>
@@ -5444,7 +5444,7 @@
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="345"/>
+      <c r="A23" s="347"/>
       <c r="B23" s="26"/>
       <c r="C23" s="247"/>
       <c r="D23" s="247"/>
@@ -5456,7 +5456,7 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="345"/>
+      <c r="A24" s="347"/>
       <c r="B24" s="26"/>
       <c r="C24" s="247"/>
       <c r="D24" s="247"/>
@@ -5468,7 +5468,7 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="345"/>
+      <c r="A25" s="347"/>
       <c r="B25" s="26"/>
       <c r="C25" s="247"/>
       <c r="D25" s="247"/>
@@ -5480,7 +5480,7 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="345"/>
+      <c r="A26" s="347"/>
       <c r="B26" s="26"/>
       <c r="C26" s="247"/>
       <c r="D26" s="247"/>
@@ -5492,7 +5492,7 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="345"/>
+      <c r="A27" s="347"/>
       <c r="B27" s="26"/>
       <c r="C27" s="247"/>
       <c r="D27" s="247"/>
@@ -5504,7 +5504,7 @@
       <c r="G27" s="21"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="345"/>
+      <c r="A28" s="347"/>
       <c r="B28" s="26"/>
       <c r="C28" s="247"/>
       <c r="D28" s="247"/>
@@ -5516,7 +5516,7 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="345"/>
+      <c r="A29" s="347"/>
       <c r="B29" s="26"/>
       <c r="C29" s="247"/>
       <c r="D29" s="247"/>
@@ -5528,7 +5528,7 @@
       <c r="G29" s="21"/>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="345"/>
+      <c r="A30" s="347"/>
       <c r="B30" s="26"/>
       <c r="C30" s="247"/>
       <c r="D30" s="247"/>
@@ -5540,7 +5540,7 @@
       <c r="G30" s="21"/>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="345"/>
+      <c r="A31" s="347"/>
       <c r="B31" s="26"/>
       <c r="C31" s="247"/>
       <c r="D31" s="247"/>
@@ -5552,7 +5552,7 @@
       <c r="G31" s="21"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="345"/>
+      <c r="A32" s="347"/>
       <c r="B32" s="26"/>
       <c r="C32" s="247"/>
       <c r="D32" s="247"/>
@@ -5564,7 +5564,7 @@
       <c r="G32" s="21"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="345"/>
+      <c r="A33" s="347"/>
       <c r="B33" s="26"/>
       <c r="C33" s="247"/>
       <c r="D33" s="249"/>
@@ -5576,7 +5576,7 @@
       <c r="G33" s="21"/>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="345"/>
+      <c r="A34" s="347"/>
       <c r="B34" s="26"/>
       <c r="C34" s="247"/>
       <c r="D34" s="247"/>
@@ -5588,7 +5588,7 @@
       <c r="G34" s="21"/>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="345"/>
+      <c r="A35" s="347"/>
       <c r="B35" s="26"/>
       <c r="C35" s="247"/>
       <c r="D35" s="247"/>
@@ -5600,7 +5600,7 @@
       <c r="G35" s="21"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="345"/>
+      <c r="A36" s="347"/>
       <c r="B36" s="26"/>
       <c r="C36" s="247"/>
       <c r="D36" s="247"/>
@@ -5612,7 +5612,7 @@
       <c r="G36" s="21"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="345"/>
+      <c r="A37" s="347"/>
       <c r="B37" s="26"/>
       <c r="C37" s="247"/>
       <c r="D37" s="247"/>
@@ -5624,7 +5624,7 @@
       <c r="G37" s="21"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="345"/>
+      <c r="A38" s="347"/>
       <c r="B38" s="26"/>
       <c r="C38" s="247"/>
       <c r="D38" s="247"/>
@@ -5636,7 +5636,7 @@
       <c r="G38" s="21"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="345"/>
+      <c r="A39" s="347"/>
       <c r="B39" s="26"/>
       <c r="C39" s="247"/>
       <c r="D39" s="247"/>
@@ -5648,7 +5648,7 @@
       <c r="G39" s="21"/>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="345"/>
+      <c r="A40" s="347"/>
       <c r="B40" s="26"/>
       <c r="C40" s="247"/>
       <c r="D40" s="247"/>
@@ -5660,7 +5660,7 @@
       <c r="G40" s="21"/>
     </row>
     <row r="41" spans="1:7">
-      <c r="A41" s="345"/>
+      <c r="A41" s="347"/>
       <c r="B41" s="26"/>
       <c r="C41" s="247"/>
       <c r="D41" s="247"/>
@@ -5672,7 +5672,7 @@
       <c r="G41" s="21"/>
     </row>
     <row r="42" spans="1:7">
-      <c r="A42" s="345"/>
+      <c r="A42" s="347"/>
       <c r="B42" s="26"/>
       <c r="C42" s="247"/>
       <c r="D42" s="247"/>
@@ -5684,7 +5684,7 @@
       <c r="G42" s="21"/>
     </row>
     <row r="43" spans="1:7">
-      <c r="A43" s="345"/>
+      <c r="A43" s="347"/>
       <c r="B43" s="26"/>
       <c r="C43" s="247"/>
       <c r="D43" s="247"/>
@@ -5696,7 +5696,7 @@
       <c r="G43" s="21"/>
     </row>
     <row r="44" spans="1:7">
-      <c r="A44" s="345"/>
+      <c r="A44" s="347"/>
       <c r="B44" s="26"/>
       <c r="C44" s="247"/>
       <c r="D44" s="247"/>
@@ -5708,7 +5708,7 @@
       <c r="G44" s="21"/>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="345"/>
+      <c r="A45" s="347"/>
       <c r="B45" s="26"/>
       <c r="C45" s="247"/>
       <c r="D45" s="247"/>
@@ -5720,7 +5720,7 @@
       <c r="G45" s="21"/>
     </row>
     <row r="46" spans="1:7">
-      <c r="A46" s="345"/>
+      <c r="A46" s="347"/>
       <c r="B46" s="26"/>
       <c r="C46" s="247"/>
       <c r="D46" s="247"/>
@@ -5732,7 +5732,7 @@
       <c r="G46" s="21"/>
     </row>
     <row r="47" spans="1:7">
-      <c r="A47" s="345"/>
+      <c r="A47" s="347"/>
       <c r="B47" s="26"/>
       <c r="C47" s="247"/>
       <c r="D47" s="247"/>
@@ -5744,7 +5744,7 @@
       <c r="G47" s="21"/>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" s="345"/>
+      <c r="A48" s="347"/>
       <c r="B48" s="26"/>
       <c r="C48" s="247"/>
       <c r="D48" s="247"/>
@@ -5756,7 +5756,7 @@
       <c r="G48" s="21"/>
     </row>
     <row r="49" spans="1:7">
-      <c r="A49" s="345"/>
+      <c r="A49" s="347"/>
       <c r="B49" s="26"/>
       <c r="C49" s="247"/>
       <c r="D49" s="247"/>
@@ -5768,7 +5768,7 @@
       <c r="G49" s="21"/>
     </row>
     <row r="50" spans="1:7">
-      <c r="A50" s="345"/>
+      <c r="A50" s="347"/>
       <c r="B50" s="26"/>
       <c r="C50" s="247"/>
       <c r="D50" s="247"/>
@@ -5780,7 +5780,7 @@
       <c r="G50" s="21"/>
     </row>
     <row r="51" spans="1:7">
-      <c r="A51" s="345"/>
+      <c r="A51" s="347"/>
       <c r="B51" s="26"/>
       <c r="C51" s="247"/>
       <c r="D51" s="247"/>
@@ -5792,7 +5792,7 @@
       <c r="G51" s="21"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="345"/>
+      <c r="A52" s="347"/>
       <c r="B52" s="26"/>
       <c r="C52" s="247"/>
       <c r="D52" s="247"/>
@@ -5804,7 +5804,7 @@
       <c r="G52" s="21"/>
     </row>
     <row r="53" spans="1:7">
-      <c r="A53" s="345"/>
+      <c r="A53" s="347"/>
       <c r="B53" s="26"/>
       <c r="C53" s="247"/>
       <c r="D53" s="247"/>
@@ -5816,7 +5816,7 @@
       <c r="G53" s="21"/>
     </row>
     <row r="54" spans="1:7">
-      <c r="A54" s="345"/>
+      <c r="A54" s="347"/>
       <c r="B54" s="26"/>
       <c r="C54" s="247"/>
       <c r="D54" s="247"/>
@@ -5828,7 +5828,7 @@
       <c r="G54" s="21"/>
     </row>
     <row r="55" spans="1:7">
-      <c r="A55" s="345"/>
+      <c r="A55" s="347"/>
       <c r="B55" s="26"/>
       <c r="C55" s="247"/>
       <c r="D55" s="247"/>
@@ -5840,7 +5840,7 @@
       <c r="G55" s="21"/>
     </row>
     <row r="56" spans="1:7">
-      <c r="A56" s="345"/>
+      <c r="A56" s="347"/>
       <c r="B56" s="26"/>
       <c r="C56" s="247"/>
       <c r="D56" s="247"/>
@@ -5852,7 +5852,7 @@
       <c r="G56" s="21"/>
     </row>
     <row r="57" spans="1:7">
-      <c r="A57" s="345"/>
+      <c r="A57" s="347"/>
       <c r="B57" s="26"/>
       <c r="C57" s="247"/>
       <c r="D57" s="247"/>
@@ -5864,7 +5864,7 @@
       <c r="G57" s="21"/>
     </row>
     <row r="58" spans="1:7">
-      <c r="A58" s="345"/>
+      <c r="A58" s="347"/>
       <c r="B58" s="26"/>
       <c r="C58" s="247"/>
       <c r="D58" s="247"/>
@@ -5876,7 +5876,7 @@
       <c r="G58" s="21"/>
     </row>
     <row r="59" spans="1:7">
-      <c r="A59" s="345"/>
+      <c r="A59" s="347"/>
       <c r="B59" s="26"/>
       <c r="C59" s="247"/>
       <c r="D59" s="247"/>
@@ -5887,7 +5887,7 @@
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:7">
-      <c r="A60" s="345"/>
+      <c r="A60" s="347"/>
       <c r="B60" s="26"/>
       <c r="C60" s="247"/>
       <c r="D60" s="247"/>
@@ -5898,7 +5898,7 @@
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:7">
-      <c r="A61" s="345"/>
+      <c r="A61" s="347"/>
       <c r="B61" s="26"/>
       <c r="C61" s="247"/>
       <c r="D61" s="247"/>
@@ -5909,7 +5909,7 @@
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:7">
-      <c r="A62" s="345"/>
+      <c r="A62" s="347"/>
       <c r="B62" s="26"/>
       <c r="C62" s="247"/>
       <c r="D62" s="247"/>
@@ -5920,7 +5920,7 @@
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:7">
-      <c r="A63" s="345"/>
+      <c r="A63" s="347"/>
       <c r="B63" s="26"/>
       <c r="C63" s="247"/>
       <c r="D63" s="247"/>
@@ -5931,7 +5931,7 @@
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:7">
-      <c r="A64" s="345"/>
+      <c r="A64" s="347"/>
       <c r="B64" s="26"/>
       <c r="C64" s="247"/>
       <c r="D64" s="247"/>
@@ -5942,7 +5942,7 @@
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:7">
-      <c r="A65" s="345"/>
+      <c r="A65" s="347"/>
       <c r="B65" s="26"/>
       <c r="C65" s="247"/>
       <c r="D65" s="247"/>
@@ -5953,7 +5953,7 @@
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:7">
-      <c r="A66" s="345"/>
+      <c r="A66" s="347"/>
       <c r="B66" s="26"/>
       <c r="C66" s="247"/>
       <c r="D66" s="247"/>
@@ -5964,7 +5964,7 @@
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:7">
-      <c r="A67" s="345"/>
+      <c r="A67" s="347"/>
       <c r="B67" s="26"/>
       <c r="C67" s="247"/>
       <c r="D67" s="247"/>
@@ -5975,7 +5975,7 @@
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:7">
-      <c r="A68" s="345"/>
+      <c r="A68" s="347"/>
       <c r="B68" s="26"/>
       <c r="C68" s="247"/>
       <c r="D68" s="247"/>
@@ -5986,7 +5986,7 @@
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:7">
-      <c r="A69" s="345"/>
+      <c r="A69" s="347"/>
       <c r="B69" s="26"/>
       <c r="C69" s="247"/>
       <c r="D69" s="247"/>
@@ -5997,7 +5997,7 @@
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:7">
-      <c r="A70" s="345"/>
+      <c r="A70" s="347"/>
       <c r="B70" s="26"/>
       <c r="C70" s="247"/>
       <c r="D70" s="247"/>
@@ -6008,7 +6008,7 @@
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:7">
-      <c r="A71" s="345"/>
+      <c r="A71" s="347"/>
       <c r="B71" s="26"/>
       <c r="C71" s="247"/>
       <c r="D71" s="247"/>
@@ -6019,7 +6019,7 @@
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:7">
-      <c r="A72" s="345"/>
+      <c r="A72" s="347"/>
       <c r="B72" s="26"/>
       <c r="C72" s="247"/>
       <c r="D72" s="247"/>
@@ -6030,7 +6030,7 @@
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:7">
-      <c r="A73" s="345"/>
+      <c r="A73" s="347"/>
       <c r="B73" s="26"/>
       <c r="C73" s="247"/>
       <c r="D73" s="247"/>
@@ -6041,7 +6041,7 @@
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:7">
-      <c r="A74" s="345"/>
+      <c r="A74" s="347"/>
       <c r="B74" s="26"/>
       <c r="C74" s="247"/>
       <c r="D74" s="247"/>
@@ -6052,7 +6052,7 @@
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:7">
-      <c r="A75" s="345"/>
+      <c r="A75" s="347"/>
       <c r="B75" s="26"/>
       <c r="C75" s="247"/>
       <c r="D75" s="247"/>
@@ -6063,7 +6063,7 @@
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:7">
-      <c r="A76" s="345"/>
+      <c r="A76" s="347"/>
       <c r="B76" s="26"/>
       <c r="C76" s="247"/>
       <c r="D76" s="247"/>
@@ -6074,7 +6074,7 @@
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:7">
-      <c r="A77" s="345"/>
+      <c r="A77" s="347"/>
       <c r="B77" s="26"/>
       <c r="C77" s="247"/>
       <c r="D77" s="247"/>
@@ -6085,7 +6085,7 @@
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:7">
-      <c r="A78" s="345"/>
+      <c r="A78" s="347"/>
       <c r="B78" s="26"/>
       <c r="C78" s="247"/>
       <c r="D78" s="247"/>
@@ -6096,7 +6096,7 @@
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:7">
-      <c r="A79" s="345"/>
+      <c r="A79" s="347"/>
       <c r="B79" s="26"/>
       <c r="C79" s="247"/>
       <c r="D79" s="247"/>
@@ -6108,7 +6108,7 @@
       <c r="G79" s="2"/>
     </row>
     <row r="80" spans="1:7">
-      <c r="A80" s="345"/>
+      <c r="A80" s="347"/>
       <c r="B80" s="26"/>
       <c r="C80" s="247"/>
       <c r="D80" s="247"/>
@@ -6120,7 +6120,7 @@
       <c r="G80" s="2"/>
     </row>
     <row r="81" spans="1:7">
-      <c r="A81" s="345"/>
+      <c r="A81" s="347"/>
       <c r="B81" s="26"/>
       <c r="C81" s="247"/>
       <c r="D81" s="247"/>
@@ -6132,7 +6132,7 @@
       <c r="G81" s="2"/>
     </row>
     <row r="82" spans="1:7">
-      <c r="A82" s="345"/>
+      <c r="A82" s="347"/>
       <c r="B82" s="26"/>
       <c r="C82" s="247"/>
       <c r="D82" s="247"/>
@@ -6144,7 +6144,7 @@
       <c r="G82" s="2"/>
     </row>
     <row r="83" spans="1:7">
-      <c r="A83" s="345"/>
+      <c r="A83" s="347"/>
       <c r="B83" s="268"/>
       <c r="C83" s="248">
         <f>SUM(C5:C72)</f>
@@ -6224,67 +6224,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="346" t="s">
+      <c r="A1" s="352" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="346"/>
-      <c r="C1" s="346"/>
-      <c r="D1" s="346"/>
-      <c r="E1" s="346"/>
-      <c r="F1" s="346"/>
-      <c r="G1" s="346"/>
-      <c r="H1" s="346"/>
-      <c r="I1" s="346"/>
-      <c r="J1" s="346"/>
-      <c r="K1" s="346"/>
-      <c r="L1" s="346"/>
-      <c r="M1" s="346"/>
-      <c r="N1" s="346"/>
-      <c r="O1" s="346"/>
-      <c r="P1" s="346"/>
-      <c r="Q1" s="346"/>
+      <c r="B1" s="352"/>
+      <c r="C1" s="352"/>
+      <c r="D1" s="352"/>
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352"/>
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352"/>
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
+      <c r="O1" s="352"/>
+      <c r="P1" s="352"/>
+      <c r="Q1" s="352"/>
     </row>
     <row r="2" spans="1:24" s="65" customFormat="1" ht="18">
-      <c r="A2" s="347" t="s">
+      <c r="A2" s="353" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="347"/>
-      <c r="C2" s="347"/>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
-      <c r="J2" s="347"/>
-      <c r="K2" s="347"/>
-      <c r="L2" s="347"/>
-      <c r="M2" s="347"/>
-      <c r="N2" s="347"/>
-      <c r="O2" s="347"/>
-      <c r="P2" s="347"/>
-      <c r="Q2" s="347"/>
+      <c r="B2" s="353"/>
+      <c r="C2" s="353"/>
+      <c r="D2" s="353"/>
+      <c r="E2" s="353"/>
+      <c r="F2" s="353"/>
+      <c r="G2" s="353"/>
+      <c r="H2" s="353"/>
+      <c r="I2" s="353"/>
+      <c r="J2" s="353"/>
+      <c r="K2" s="353"/>
+      <c r="L2" s="353"/>
+      <c r="M2" s="353"/>
+      <c r="N2" s="353"/>
+      <c r="O2" s="353"/>
+      <c r="P2" s="353"/>
+      <c r="Q2" s="353"/>
     </row>
     <row r="3" spans="1:24" s="66" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="348" t="s">
+      <c r="A3" s="354" t="s">
         <v>177</v>
       </c>
-      <c r="B3" s="349"/>
-      <c r="C3" s="349"/>
-      <c r="D3" s="349"/>
-      <c r="E3" s="349"/>
-      <c r="F3" s="349"/>
-      <c r="G3" s="349"/>
-      <c r="H3" s="349"/>
-      <c r="I3" s="349"/>
-      <c r="J3" s="349"/>
-      <c r="K3" s="349"/>
-      <c r="L3" s="349"/>
-      <c r="M3" s="349"/>
-      <c r="N3" s="349"/>
-      <c r="O3" s="349"/>
-      <c r="P3" s="349"/>
-      <c r="Q3" s="350"/>
+      <c r="B3" s="355"/>
+      <c r="C3" s="355"/>
+      <c r="D3" s="355"/>
+      <c r="E3" s="355"/>
+      <c r="F3" s="355"/>
+      <c r="G3" s="355"/>
+      <c r="H3" s="355"/>
+      <c r="I3" s="355"/>
+      <c r="J3" s="355"/>
+      <c r="K3" s="355"/>
+      <c r="L3" s="355"/>
+      <c r="M3" s="355"/>
+      <c r="N3" s="355"/>
+      <c r="O3" s="355"/>
+      <c r="P3" s="355"/>
+      <c r="Q3" s="356"/>
       <c r="S3" s="50"/>
       <c r="T3" s="7"/>
       <c r="U3" s="7"/>
@@ -6293,52 +6293,52 @@
       <c r="X3" s="16"/>
     </row>
     <row r="4" spans="1:24" s="67" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="351" t="s">
+      <c r="A4" s="357" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="353" t="s">
+      <c r="B4" s="359" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="355" t="s">
+      <c r="C4" s="348" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="355" t="s">
+      <c r="D4" s="348" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="355" t="s">
+      <c r="E4" s="348" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="355" t="s">
+      <c r="F4" s="348" t="s">
         <v>121</v>
       </c>
-      <c r="G4" s="355" t="s">
+      <c r="G4" s="348" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="355" t="s">
+      <c r="H4" s="348" t="s">
         <v>133</v>
       </c>
-      <c r="I4" s="355" t="s">
+      <c r="I4" s="348" t="s">
         <v>186</v>
       </c>
-      <c r="J4" s="355" t="s">
+      <c r="J4" s="348" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="355" t="s">
+      <c r="K4" s="348" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="355" t="s">
+      <c r="L4" s="348" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="355" t="s">
+      <c r="M4" s="348" t="s">
         <v>211</v>
       </c>
-      <c r="N4" s="355" t="s">
+      <c r="N4" s="348" t="s">
         <v>126</v>
       </c>
-      <c r="O4" s="359" t="s">
+      <c r="O4" s="350" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="357" t="s">
+      <c r="P4" s="361" t="s">
         <v>58</v>
       </c>
       <c r="Q4" s="125" t="s">
@@ -6351,22 +6351,22 @@
       <c r="W4" s="69"/>
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="352"/>
-      <c r="B5" s="354"/>
-      <c r="C5" s="356"/>
-      <c r="D5" s="356"/>
-      <c r="E5" s="356"/>
-      <c r="F5" s="356"/>
-      <c r="G5" s="356"/>
-      <c r="H5" s="356"/>
-      <c r="I5" s="356"/>
-      <c r="J5" s="356"/>
-      <c r="K5" s="356"/>
-      <c r="L5" s="356"/>
-      <c r="M5" s="356"/>
-      <c r="N5" s="356"/>
-      <c r="O5" s="360"/>
-      <c r="P5" s="358"/>
+      <c r="A5" s="358"/>
+      <c r="B5" s="360"/>
+      <c r="C5" s="349"/>
+      <c r="D5" s="349"/>
+      <c r="E5" s="349"/>
+      <c r="F5" s="349"/>
+      <c r="G5" s="349"/>
+      <c r="H5" s="349"/>
+      <c r="I5" s="349"/>
+      <c r="J5" s="349"/>
+      <c r="K5" s="349"/>
+      <c r="L5" s="349"/>
+      <c r="M5" s="349"/>
+      <c r="N5" s="349"/>
+      <c r="O5" s="351"/>
+      <c r="P5" s="362"/>
       <c r="Q5" s="126" t="s">
         <v>39</v>
       </c>
@@ -9397,6 +9397,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
@@ -9413,9 +9416,6 @@
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9457,14 +9457,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:97" ht="19.5">
-      <c r="A1" s="364" t="s">
+      <c r="A1" s="366" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="365"/>
-      <c r="C1" s="365"/>
-      <c r="D1" s="365"/>
-      <c r="E1" s="365"/>
-      <c r="F1" s="366"/>
+      <c r="B1" s="367"/>
+      <c r="C1" s="367"/>
+      <c r="D1" s="367"/>
+      <c r="E1" s="367"/>
+      <c r="F1" s="368"/>
       <c r="G1" s="60"/>
       <c r="H1" s="60"/>
       <c r="I1" s="142"/>
@@ -9558,14 +9558,14 @@
       <c r="CS1" s="137"/>
     </row>
     <row r="2" spans="1:97" ht="15" customHeight="1">
-      <c r="A2" s="367" t="s">
+      <c r="A2" s="369" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="368"/>
-      <c r="C2" s="368"/>
-      <c r="D2" s="368"/>
-      <c r="E2" s="368"/>
-      <c r="F2" s="369"/>
+      <c r="B2" s="370"/>
+      <c r="C2" s="370"/>
+      <c r="D2" s="370"/>
+      <c r="E2" s="370"/>
+      <c r="F2" s="371"/>
       <c r="G2" s="60"/>
       <c r="H2" s="60"/>
       <c r="I2" s="142"/>
@@ -9659,14 +9659,14 @@
       <c r="CS2" s="137"/>
     </row>
     <row r="3" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A3" s="370" t="s">
+      <c r="A3" s="372" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="371"/>
-      <c r="C3" s="371"/>
-      <c r="D3" s="371"/>
-      <c r="E3" s="371"/>
-      <c r="F3" s="372"/>
+      <c r="B3" s="373"/>
+      <c r="C3" s="373"/>
+      <c r="D3" s="373"/>
+      <c r="E3" s="373"/>
+      <c r="F3" s="374"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
       <c r="I3" s="142"/>
@@ -13033,12 +13033,12 @@
     </row>
     <row r="35" spans="1:97" ht="13.5" thickBot="1">
       <c r="A35" s="132"/>
-      <c r="B35" s="363" t="s">
+      <c r="B35" s="365" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="363"/>
-      <c r="D35" s="363"/>
-      <c r="E35" s="363"/>
+      <c r="C35" s="365"/>
+      <c r="D35" s="365"/>
+      <c r="E35" s="365"/>
       <c r="F35" s="133"/>
       <c r="G35" s="138"/>
       <c r="H35" s="138"/>
@@ -22408,11 +22408,11 @@
       <c r="CS118" s="137"/>
     </row>
     <row r="119" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A119" s="361" t="s">
+      <c r="A119" s="363" t="s">
         <v>27</v>
       </c>
-      <c r="B119" s="362"/>
-      <c r="C119" s="373"/>
+      <c r="B119" s="364"/>
+      <c r="C119" s="375"/>
       <c r="D119" s="208">
         <f>SUM(D37:D118)</f>
         <v>2624180</v>
@@ -22615,11 +22615,11 @@
       <c r="CS120" s="137"/>
     </row>
     <row r="121" spans="1:97" ht="13.5" thickBot="1">
-      <c r="A121" s="361" t="s">
+      <c r="A121" s="363" t="s">
         <v>28</v>
       </c>
-      <c r="B121" s="362"/>
-      <c r="C121" s="362"/>
+      <c r="B121" s="364"/>
+      <c r="C121" s="364"/>
       <c r="D121" s="208">
         <f>D119+M121</f>
         <v>2624180</v>
@@ -33855,8 +33855,8 @@
   </sheetPr>
   <dimension ref="A1:Y204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33875,35 +33875,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="382" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="381"/>
-      <c r="C1" s="381"/>
-      <c r="D1" s="381"/>
-      <c r="E1" s="382"/>
+      <c r="B1" s="383"/>
+      <c r="C1" s="383"/>
+      <c r="D1" s="383"/>
+      <c r="E1" s="384"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:25" ht="21.75">
-      <c r="A2" s="386" t="s">
+      <c r="A2" s="388" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="387"/>
-      <c r="C2" s="387"/>
-      <c r="D2" s="387"/>
-      <c r="E2" s="388"/>
+      <c r="B2" s="389"/>
+      <c r="C2" s="389"/>
+      <c r="D2" s="389"/>
+      <c r="E2" s="390"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:25" ht="23.25">
-      <c r="A3" s="383" t="s">
+      <c r="A3" s="385" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="384"/>
-      <c r="C3" s="384"/>
-      <c r="D3" s="384"/>
-      <c r="E3" s="385"/>
+      <c r="B3" s="386"/>
+      <c r="C3" s="386"/>
+      <c r="D3" s="386"/>
+      <c r="E3" s="387"/>
       <c r="F3" s="5"/>
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
@@ -33926,15 +33926,15 @@
       <c r="Y3" s="7"/>
     </row>
     <row r="4" spans="1:25" ht="23.25">
-      <c r="A4" s="389" t="s">
+      <c r="A4" s="391" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="390"/>
+      <c r="B4" s="392"/>
       <c r="C4" s="258"/>
-      <c r="D4" s="391" t="s">
+      <c r="D4" s="393" t="s">
         <v>95</v>
       </c>
-      <c r="E4" s="392"/>
+      <c r="E4" s="394"/>
       <c r="F4" s="5"/>
       <c r="G4" s="43"/>
       <c r="H4" s="7"/>
@@ -34243,10 +34243,10 @@
       <c r="Y13" s="7"/>
     </row>
     <row r="14" spans="1:25" ht="21.75">
-      <c r="A14" s="393" t="s">
+      <c r="A14" s="342" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="394">
+      <c r="B14" s="343">
         <v>200000</v>
       </c>
       <c r="C14" s="341"/>
@@ -34401,13 +34401,13 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" ht="23.25" thickBot="1">
-      <c r="A19" s="377" t="s">
+      <c r="A19" s="379" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="378"/>
-      <c r="C19" s="378"/>
-      <c r="D19" s="378"/>
-      <c r="E19" s="379"/>
+      <c r="B19" s="380"/>
+      <c r="C19" s="380"/>
+      <c r="D19" s="380"/>
+      <c r="E19" s="381"/>
       <c r="F19" s="5"/>
       <c r="G19" s="9"/>
       <c r="H19" s="7"/>
@@ -34873,13 +34873,13 @@
       <c r="Y33" s="7"/>
     </row>
     <row r="34" spans="1:25" ht="24" thickBot="1">
-      <c r="A34" s="374" t="s">
+      <c r="A34" s="376" t="s">
         <v>209</v>
       </c>
-      <c r="B34" s="375"/>
-      <c r="C34" s="375"/>
-      <c r="D34" s="375"/>
-      <c r="E34" s="376"/>
+      <c r="B34" s="377"/>
+      <c r="C34" s="377"/>
+      <c r="D34" s="377"/>
+      <c r="E34" s="378"/>
       <c r="H34" s="7"/>
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
